--- a/biology/Botanique/Jacques_Barbeu_du_Bourg/Jacques_Barbeu_du_Bourg.xlsx
+++ b/biology/Botanique/Jacques_Barbeu_du_Bourg/Jacques_Barbeu_du_Bourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Barbeu du Bourg, né le 12 février 1709[1] à Mayenne et mort le 14 décembre 1779 à Paris, est un médecin, polygraphe, historien et scientifique français, connu surtout pour ses travaux de botanique. Il a aussi écrit en latin. Il utilise souvent pour ses publications des pseudonymes : Zoïlomastix, Boniface Diastillet, Alexis Diastille, Abraham Mansword, Samuel Jones, etc. Il a collaboré à l'Encyclopédie. Ami de Benjamin Franklin, il a l'idée de dresser, pour l'étude de l'histoire, des tableaux synoptiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Barbeu du Bourg, né le 12 février 1709 à Mayenne et mort le 14 décembre 1779 à Paris, est un médecin, polygraphe, historien et scientifique français, connu surtout pour ses travaux de botanique. Il a aussi écrit en latin. Il utilise souvent pour ses publications des pseudonymes : Zoïlomastix, Boniface Diastillet, Alexis Diastille, Abraham Mansword, Samuel Jones, etc. Il a collaboré à l'Encyclopédie. Ami de Benjamin Franklin, il a l'idée de dresser, pour l'étude de l'histoire, des tableaux synoptiques.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de Claude Barbeu[2], sieur du Bourg, marchand toilier à Mayenne, sieur des Cheminées, et de Françoise Jeanne Gournay[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Claude Barbeu, sieur du Bourg, marchand toilier à Mayenne, sieur des Cheminées, et de Françoise Jeanne Gournay.
 Deux des frères de Jacques Barbeu du Bourg, indique Vicq d'Azyr s'étaient voués à l'état ecclésiastique. D'autres parents de Barbeu étaient d'église : son cousin François-René Barbeu, qui fut plus tard curé de Saint-Martin de Mayenne, et Claude du Bourg, de la branche mancelle des Barbeu, qui est à Paris procureur du collège du Mans.
 La sœur de Jacques Barbeu du Bourg, a pour fils Jean Lair de la Motte, secrétaire de Benjamin Franklin, et René-Augustin Lair-Lamotte, homme politique. Jacques Barbeu du Bourg épouse Françoise Blanche Béranger, qui meurt en 1777 ; sans avoir de postérité.
 </t>
@@ -544,11 +558,13 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Barbeu du Bourg termine son cours de philosophie à l'âge de 15 ans. Il commence des études théologiques[4].
-Il apprend les langues anciennes, notamment l’hébreu afin d’entrer dans les ordres. Mais il renonce à son projet afin de se consacrer aux sciences. Esprit encyclopédique, il est attiré par la littérature, il reprend l'étude du grec[5], du latin. Un de ses contemporains affirme qu'il savait aussi bien le grec et l'hébreu qu'il est possible pour des modernes.
-Il apprend plus tard l'anglais, l'italien, et peut lire les poètes classiques dans le texte ; il se livre ensuite aux études historiques ; la physique, les mathématiques[6]. Petit-fils et neveu d'avocats, il effectue son droit, et est reçu bachelier en 1735.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Barbeu du Bourg termine son cours de philosophie à l'âge de 15 ans. Il commence des études théologiques.
+Il apprend les langues anciennes, notamment l’hébreu afin d’entrer dans les ordres. Mais il renonce à son projet afin de se consacrer aux sciences. Esprit encyclopédique, il est attiré par la littérature, il reprend l'étude du grec, du latin. Un de ses contemporains affirme qu'il savait aussi bien le grec et l'hébreu qu'il est possible pour des modernes.
+Il apprend plus tard l'anglais, l'italien, et peut lire les poètes classiques dans le texte ; il se livre ensuite aux études historiques ; la physique, les mathématiques. Petit-fils et neveu d'avocats, il effectue son droit, et est reçu bachelier en 1735.
 Il est un temps précepteur dans la maison de Matignon, où il fait la connaissance de Henri Saint Jean de Bolingbroke. Il étudie ensuite la médecine à Paris où il obtient un titre de docteur en 1748.
 </t>
         </is>
@@ -580,29 +596,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation
-Une fois admis à la Faculté de médecine de Paris, Barbeu du Bourg se donna tout entier à sa nouvelle carrière. De cette école, il reçoit formation, mais encore l'esprit de corps et il en partagea les rancunes contre les chirurgiens.
-Deux malades de la Mayenne transportés à Paris pour y être soignés et que les chirurgiens tuèrent, inspirèrent à Jacques Barbeu du Bourg deux Mémoires virulents[7]. Il ne manque pas l'occasion d'aiguiser quelques épigrammes à l'adresse des chirurgiens, particulièrement pour la défense de ses compatriotes[8].
-Barbeu du Bourg est l'auteur de la Lettre d'un garçon barbier à M. l'abbé Desfontaines, auteur des Observations sur les écrits modernes au sujet de la maîtrise es arts[9]. Il y soutient l'opinion de la Faculté qui conseille aux barbiers de demander eux aussi le diplôme de maîtres es arts comme demandé aux chirurgiens par la même faculté en 1743.
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Une fois admis à la Faculté de médecine de Paris, Barbeu du Bourg se donna tout entier à sa nouvelle carrière. De cette école, il reçoit formation, mais encore l'esprit de corps et il en partagea les rancunes contre les chirurgiens.
+Deux malades de la Mayenne transportés à Paris pour y être soignés et que les chirurgiens tuèrent, inspirèrent à Jacques Barbeu du Bourg deux Mémoires virulents. Il ne manque pas l'occasion d'aiguiser quelques épigrammes à l'adresse des chirurgiens, particulièrement pour la défense de ses compatriotes.
+Barbeu du Bourg est l'auteur de la Lettre d'un garçon barbier à M. l'abbé Desfontaines, auteur des Observations sur les écrits modernes au sujet de la maîtrise es arts. Il y soutient l'opinion de la Faculté qui conseille aux barbiers de demander eux aussi le diplôme de maîtres es arts comme demandé aux chirurgiens par la même faculté en 1743.
 Barbeu est reçu bachelier. Il s'attaque aux thèses de médecine : 
-le 10 décembre 1746, sous la présidence de P. Borie, il soutient sa première thèse quodlibétaire: Daturne etiam vitalium organorum somnus[10] :
-le 27 avril 1746, il soutient la thèse cardinale par devant le doyen J.-B.-Th. Martinenq comme président; cette épreuve est, selon l'usage, sur un sujet d'hygiène : Utrum anni climacterici cœteris periculosiores ?[11]
-en décembre 1746, il se présenta à sa deuxième thèse quodlibétaire[12]. La question était : An variolarum morbus absque eruptione ?[13] ;
-le 8 février 1748, il passa sa dernière thèse quodlibétaire qui traitait ce point : An tracheotomiœ nunc scalpellum, nunc trigonus mucro?, auquel il répond affirmatif.
-Médecin
-Il devient docteur régent de la Faculté de médecine de Paris en 1748. Il s'installe comme médecin à Paris[14]. À la fin de sa vie, il ne soigne plus que les pauvres et ses amis, parmi lesquels Denis Diderot et Thérèse Levasseur.
-Les médecins faisaient tous partie du corps enseignant de l'école, Barbeu prendra la parole à plusieurs thèses[15]. En février 1768, il préside la thèse en médecine de Joseph-Ignace Guillotin, puis en 1772, la thèse en médecine de G.-L. Varnier.
-Professeur
-Professeur, il est chargé d'enseigner la pharmacie aux Écoles de la rue de la Bucherie vers 1752-1753[16]. En 1758, il devient professeur de chirurgie en langue latine, puis en 1768 en langue française. Il devient membre associé de la Société royale des sciences de Montpellier et de l'Académie royale des sciences de Stockholm, et membre de la Société royale des médecins de Londres.
-En 1760, il est nommé, avec Vieillard, Bellot et Hérissant, commissaire à l'examen des bains de Seine du sieur Poitevin. Le jour du vendredi saint 
-de l'année 1760, Barbeu, accompagné de Mlle Biberon, assiste à une séance de crucifiement chez les convulsionnaires[17].
-En 1761, on le charge de l'expertise des eaux minérales de Bricquebec[18]. En 1762, on recourt à ses lumières dans une affaire d'empoisonnement[19].
-En 1761, un auteur utilise le nom et la renommée de Barbeu pour faire vendre ses ouvrages[20] dont l'ouvrage Anecdotes de médecine, MDCCLXII[21] qui est un faux. Du Bourg[22] écrivit immédiatement[23] un démenti formel[24]. Alors le coupable Pierre-Antoine-Joseph du Monchaux se dénonça[25]. L'affaire en resta là.
-Pamphlétaire, il se mêle à la querelle médicale de 1756 en France sur la saignée ; en 1765, après la mort de son journal, il se lança dans une autre querelle médicale de 1765 en France sur la grossesse, et les deux furent pour Paul Delaunay épiques.
-Barbeu a émis la théorie qui fait de la congestion produite par la dixième époque cataméniale la cause provocatrice du travail d'accouchement. Barbeu a émis cette théorie avant Tyler Smith[26].
-D'abord adversaire[27], Barbeu devient un de plus fervent partisan de la Variolisation : il la défendit dans son journal ; en 1769, il écrivit en sa faveur son Opinion d'un médecin de la Faculté de Paris sur l'inoculation de la petite vérole. Le sujet est vivement discuté par la Faculté de Médecine.
-Il est élu associé ordinaire de la Société royale de médecine le 18 mai 1779.
-</t>
+le 10 décembre 1746, sous la présidence de P. Borie, il soutient sa première thèse quodlibétaire: Daturne etiam vitalium organorum somnus :
+le 27 avril 1746, il soutient la thèse cardinale par devant le doyen J.-B.-Th. Martinenq comme président; cette épreuve est, selon l'usage, sur un sujet d'hygiène : Utrum anni climacterici cœteris periculosiores ?
+en décembre 1746, il se présenta à sa deuxième thèse quodlibétaire. La question était : An variolarum morbus absque eruptione ? ;
+le 8 février 1748, il passa sa dernière thèse quodlibétaire qui traitait ce point : An tracheotomiœ nunc scalpellum, nunc trigonus mucro?, auquel il répond affirmatif.</t>
         </is>
       </c>
     </row>
@@ -627,12 +634,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Journaliste</t>
+          <t>Médecine</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le 10 avril 1761, Barbeu du Bourg lance un journal de médecine : la Gazette d'Épidaure ou Recueil de nouvelles de médecine avec des réflexions pour simplifier la théorie et éclairer la pratique[28]. Il collabore aux Ephémérides du Citoyen[29]. Sous le pseudonyme de Samuel Jones, il collabora au Journal anglais[30]. En 1774, il tente de créer le premier journal franco-américain, Le Correspondant de Philadelphie, mais n'obtient pas l'approbation.
+          <t>Médecin</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il devient docteur régent de la Faculté de médecine de Paris en 1748. Il s'installe comme médecin à Paris. À la fin de sa vie, il ne soigne plus que les pauvres et ses amis, parmi lesquels Denis Diderot et Thérèse Levasseur.
+Les médecins faisaient tous partie du corps enseignant de l'école, Barbeu prendra la parole à plusieurs thèses. En février 1768, il préside la thèse en médecine de Joseph-Ignace Guillotin, puis en 1772, la thèse en médecine de G.-L. Varnier.
 </t>
         </is>
       </c>
@@ -658,18 +672,26 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Encyclopédiste</t>
+          <t>Médecine</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il s’intéresse à des sujets très variés : la linguistique, l’histoire, l’archéologie, la littérature, la physique, etc.
-Il a l'idée de dresser, pour l'étude de l'histoire, des tableaux synoptiques[31].
-Il collabora à l'Encyclopédie à partir du 3e tome en 1753[32]. Il y a donné l'article Chronologique (machine).
-Il est l’auteur de nombreux livres et mémoires dont la Chronographie, ou Description des tems, contenant toute la suite des souverains de l’univers et des principaux événements de chaque siècle… (Paris, 1753), Gazette d’Épidaure, ou Recueil de nouvelles de médecine avec des réflexions pour simplifier la théorie et éclairer la pratique (Paris, 1762), Le Botaniste françois, comprenant toutes les plantes communes et usuelles… (deux volumes, Paris, 1767).
-À l'instar de Franklin, Jacques Barbeu du Bourg est inventeur. Il imagine un paratonnerre portatif[33] destiné à protéger le piéton en marche pendant l'orage[34]. L'invention ne rencontre pas de succès. Barbeu du Bourg entame de nouvelles expériences, sur les fours à poulets[35] et l'influence de la composition du sol sur les grains.
-Description de l'invention[36]
-Le corps du parasol, dit Barbeu Dubourg, se compose : 1° d’une surface de soie bombée, mais ayant une de ses couturcs recouverte en dehors d’une petite tresse d’argent; 2° d’un manche de bois léger et long d’environ deux pieds; 3° d’une tringle de fer d’un demi-pouce de diamètre, et de huit à dix pouces de long, placée en dessus vis-à—vis du manche, et ter— minée supérieurement par un écrou; 4° d’un anneau, de baguettes et d'un ressort particulièrement situés en dessous: cet anneau, glissant sur la tringle, sert à plier et à déplier les baleines; 5° de neuf ou dix baleines, chacune de deux pièces, arc-boutées à l’ordinaire, mais placées au—dessus du taffetas; l’une de ces baleines attenante à la tresse d’argent, est armée d'un bout de cuivre terminé par un écrou. Les accessoires sont: 1° une verge de cuivre mince, longue d’un pied, terminée supérieurement par une pointe fine, et intérieurement par une vis qui s‘adapte aisément, quand on veut, à l’écrou de tringle; 2° un gros fil de laiton, d’un pied et demi de largeur, finissant par une petite vis qui au besoin se met dans l’écrou du bout de cuivre dont nous avons parlé ; 3° un rordonnet d’argent pendant au bout inférieur de ce fil de laiton, et terminé par une petite houppe de frange qui traîne à terre..
+          <t>Professeur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Professeur, il est chargé d'enseigner la pharmacie aux Écoles de la rue de la Bucherie vers 1752-1753. En 1758, il devient professeur de chirurgie en langue latine, puis en 1768 en langue française. Il devient membre associé de la Société royale des sciences de Montpellier et de l'Académie royale des sciences de Stockholm, et membre de la Société royale des médecins de Londres.
+En 1760, il est nommé, avec Vieillard, Bellot et Hérissant, commissaire à l'examen des bains de Seine du sieur Poitevin. Le jour du vendredi saint 
+de l'année 1760, Barbeu, accompagné de Mlle Biberon, assiste à une séance de crucifiement chez les convulsionnaires.
+En 1761, on le charge de l'expertise des eaux minérales de Bricquebec. En 1762, on recourt à ses lumières dans une affaire d'empoisonnement.
+En 1761, un auteur utilise le nom et la renommée de Barbeu pour faire vendre ses ouvrages dont l'ouvrage Anecdotes de médecine, MDCCLXII qui est un faux. Du Bourg écrivit immédiatement un démenti formel. Alors le coupable Pierre-Antoine-Joseph du Monchaux se dénonça. L'affaire en resta là.
+Pamphlétaire, il se mêle à la querelle médicale de 1756 en France sur la saignée ; en 1765, après la mort de son journal, il se lança dans une autre querelle médicale de 1765 en France sur la grossesse, et les deux furent pour Paul Delaunay épiques.
+Barbeu a émis la théorie qui fait de la congestion produite par la dixième époque cataméniale la cause provocatrice du travail d'accouchement. Barbeu a émis cette théorie avant Tyler Smith.
+D'abord adversaire, Barbeu devient un de plus fervent partisan de la Variolisation : il la défendit dans son journal ; en 1769, il écrivit en sa faveur son Opinion d'un médecin de la Faculté de Paris sur l'inoculation de la petite vérole. Le sujet est vivement discuté par la Faculté de Médecine.
+Il est élu associé ordinaire de la Société royale de médecine le 18 mai 1779.
 </t>
         </is>
       </c>
@@ -695,17 +717,129 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Journaliste</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 10 avril 1761, Barbeu du Bourg lance un journal de médecine : la Gazette d'Épidaure ou Recueil de nouvelles de médecine avec des réflexions pour simplifier la théorie et éclairer la pratique. Il collabore aux Ephémérides du Citoyen. Sous le pseudonyme de Samuel Jones, il collabora au Journal anglais. En 1774, il tente de créer le premier journal franco-américain, Le Correspondant de Philadelphie, mais n'obtient pas l'approbation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jacques_Barbeu_du_Bourg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Barbeu_du_Bourg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Encyclopédiste</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s’intéresse à des sujets très variés : la linguistique, l’histoire, l’archéologie, la littérature, la physique, etc.
+Il a l'idée de dresser, pour l'étude de l'histoire, des tableaux synoptiques.
+Il collabora à l'Encyclopédie à partir du 3e tome en 1753. Il y a donné l'article Chronologique (machine).
+Il est l’auteur de nombreux livres et mémoires dont la Chronographie, ou Description des tems, contenant toute la suite des souverains de l’univers et des principaux événements de chaque siècle… (Paris, 1753), Gazette d’Épidaure, ou Recueil de nouvelles de médecine avec des réflexions pour simplifier la théorie et éclairer la pratique (Paris, 1762), Le Botaniste françois, comprenant toutes les plantes communes et usuelles… (deux volumes, Paris, 1767).
+À l'instar de Franklin, Jacques Barbeu du Bourg est inventeur. Il imagine un paratonnerre portatif destiné à protéger le piéton en marche pendant l'orage. L'invention ne rencontre pas de succès. Barbeu du Bourg entame de nouvelles expériences, sur les fours à poulets et l'influence de la composition du sol sur les grains.
+Description de l'invention
+Le corps du parasol, dit Barbeu Dubourg, se compose : 1° d’une surface de soie bombée, mais ayant une de ses couturcs recouverte en dehors d’une petite tresse d’argent; 2° d’un manche de bois léger et long d’environ deux pieds; 3° d’une tringle de fer d’un demi-pouce de diamètre, et de huit à dix pouces de long, placée en dessus vis-à—vis du manche, et ter— minée supérieurement par un écrou; 4° d’un anneau, de baguettes et d'un ressort particulièrement situés en dessous: cet anneau, glissant sur la tringle, sert à plier et à déplier les baleines; 5° de neuf ou dix baleines, chacune de deux pièces, arc-boutées à l’ordinaire, mais placées au—dessus du taffetas; l’une de ces baleines attenante à la tresse d’argent, est armée d'un bout de cuivre terminé par un écrou. Les accessoires sont: 1° une verge de cuivre mince, longue d’un pied, terminée supérieurement par une pointe fine, et intérieurement par une vis qui s‘adapte aisément, quand on veut, à l’écrou de tringle; 2° un gros fil de laiton, d’un pied et demi de largeur, finissant par une petite vis qui au besoin se met dans l’écrou du bout de cuivre dont nous avons parlé ; 3° un rordonnet d’argent pendant au bout inférieur de ce fil de laiton, et terminé par une petite houppe de frange qui traîne à terre..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jacques_Barbeu_du_Bourg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Barbeu_du_Bourg</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Amis</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolingbroke
-Il se lie avec des savants italiens, avec des anglais comme Henri Saint Jean de Bolingbroke. Ce dernier charge Barbeu, dès 1741, de traduire ses Lettres sur l'Histoire [1] sur l'édition de Pope, publiée après la mort de leur auteur en 1752. Il y joint la traduction des " Reflexions sur l'Exil " et  d'une " Lettre à Mylord Bathurst sur le véritable usage de la retraite &amp; de l'Étude."  Dans cet ouvrage l'authenticité de la Bible est attaquée. J. Leland, P. Walley écrivent contre l'ouvrage. Voltaire prendra la défense de Bolingbroke dans sa "Défense de Mylord Bollingbrocke par le Docteur Good Natur'd Wellwisher ".
-Barbeu est aussi le traducteur de Le Siècle politique de Louis XIV, ou Lettres du Vte Bolingbroke sur ce sujet, avec les pièces qui forment l'Histoire du siècle de M. F. de Voltaire et de ses querelles avec Mrs de Maupertuis et La Beaumelle, suivies de la disgrâce de ce fameux poète[37]. en 1753 et réédité en 1755.
-Benjamin Franklin
-Benjamin Franklin (1706-1790) entretient avec lui une correspondance suivie et amicale dès 1767[38].
-Benjamin Franklin effectue une deuxième visite en France en juillet 1769. La correspondance devient de plus en plus intense[39]. Les deux correspondants y abordent une prodigieuse variété de sujets[40].
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bolingbroke</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se lie avec des savants italiens, avec des anglais comme Henri Saint Jean de Bolingbroke. Ce dernier charge Barbeu, dès 1741, de traduire ses Lettres sur l'Histoire  sur l'édition de Pope, publiée après la mort de leur auteur en 1752. Il y joint la traduction des " Reflexions sur l'Exil " et  d'une " Lettre à Mylord Bathurst sur le véritable usage de la retraite &amp; de l'Étude."  Dans cet ouvrage l'authenticité de la Bible est attaquée. J. Leland, P. Walley écrivent contre l'ouvrage. Voltaire prendra la défense de Bolingbroke dans sa "Défense de Mylord Bollingbrocke par le Docteur Good Natur'd Wellwisher ".
+Barbeu est aussi le traducteur de Le Siècle politique de Louis XIV, ou Lettres du Vte Bolingbroke sur ce sujet, avec les pièces qui forment l'Histoire du siècle de M. F. de Voltaire et de ses querelles avec Mrs de Maupertuis et La Beaumelle, suivies de la disgrâce de ce fameux poète. en 1753 et réédité en 1755.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jacques_Barbeu_du_Bourg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Barbeu_du_Bourg</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Amis</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Benjamin Franklin</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benjamin Franklin (1706-1790) entretient avec lui une correspondance suivie et amicale dès 1767.
+Benjamin Franklin effectue une deuxième visite en France en juillet 1769. La correspondance devient de plus en plus intense. Les deux correspondants y abordent une prodigieuse variété de sujets.
 Contenu des lettres
 Les principaux objets que l'on rencontre dans ses Lettres sont des réflexions:
 1° sur l'électricité positive ou négative substituée au corps humain pour le traitement des maladies;
@@ -717,123 +851,164 @@
 7° des considérations sur l'inoculation en, général, et les détails de cette méthode pratiquée à Boston,  la proportion des guéris et des morts fut de 8oo à 600
 8°. des expériences sur l'art de nager;
 9° des réflexions sur la construction de l'harmonica, et sur la manière d'en tirer des sons.
-Courrier de B. Franklin à Jacques Barbeu du Bourg (2 octobre 1770)[41]
+Courrier de B. Franklin à Jacques Barbeu du Bourg (2 octobre 1770)
 Monsieur, je vois avec plaisir que nous pensons à peu près l'un comme l'autre au sujet de l'Amérique anglaise. Nous n'avons jamais prétendu que les colonies dussent s'exempter de contribuer aux dépenses communes et nécessaires au maintien de la prospérité du royaume. Nous soutenons seulement que, puisque nous possédons des Parlemens chez nous, que nous n'avons pas de représentation dans le Parlement de la Grande-Bretagne, c'est à nos propres Parlemens de décider ce que nous pouvons et ce que nous devons dans tous les cas donner à l'Angleterre, sans qu'elle ait aucun droit de nous arracher notre argent Les différends qui se sont élevés entre les deux pays coûtent déjà au commerce de l'Angleterre plusieurs millions sterling, et l'Amérique n'a fait que gagner dans la proportion même de cette perte. Le commerce de l'Angleterre consistoit principalement en superfluités, en objets de luxe et de mode, dont nous pouvons très bien nous passer. La résolution que nous avons prise de n'en plus importer jusqu'à ce que nous ayons obtenu une juste réparation des torts que nous avons soufferts n'a fait qu'encourager un grand nombre de manufactures. Quoique naissantes, elles vont s'étendre, s'accroître, se consolider, et bientôt il ne sera pas facile de nous les faire abandonner ; elles jouiront toujours de notre protection quand bien même nous viendrions, par une circonstance inattendue, à nous réconcilier plus cordialement que jamais avec l'Angleterre.
-En 1773, Barbeu du Bourg traduit après Jean-Baptiste L'Écuy les œuvres de Franklin [2]. Pour la 4e édition, Franklin ajoute quelques lettres inédites[42].
-Barbeu est l'auteur du Calendrier de Philadelphie[43] qui est une imitation du Poor Richard's Almanac, de Benjamin Franklin qui se présente comme une traduction de l'anglais, est destinée à soutenir la propagande de Franklin en France. Jean Lair de la Motte, neveu de Jacques Barbeu du Bourg est secrétaire de Benjamin Franklin.
-Barbeu rédige en 1774 le Petit Code de la raison humaine, ou Exposition succincte de ce que la raison dicte à tous les hommes pour éclairer leur conduite et assurer leur bonheur In-8° Londres : Becket : et de Hondt, 1774 qui sera réédité en 1782 et 1789. Il s'agit d'un ouvrage personnel dédié et inspiré des théories de Benjamin Franklin[44], est d'ailleurs imprimé pour la première fois en 1774 sur les presses de Benjamin Franklin à Passy. L'édition de 1782 passa toute en Angleterre. L'édition de 1789 donnée à Paris est « la plus complète »[45], du Petit Code de la raison humaine dans lequel son auteur fait l'éloge de la famille et du mariage, du travail, de la tolérance ; il défend en outre le droit de propriété et l'impôt foncier, et développe des idées agrariennes sur la population et l'agriculture.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Jacques_Barbeu_du_Bourg</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jacques_Barbeu_du_Bourg</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+En 1773, Barbeu du Bourg traduit après Jean-Baptiste L'Écuy les œuvres de Franklin . Pour la 4e édition, Franklin ajoute quelques lettres inédites.
+Barbeu est l'auteur du Calendrier de Philadelphie qui est une imitation du Poor Richard's Almanac, de Benjamin Franklin qui se présente comme une traduction de l'anglais, est destinée à soutenir la propagande de Franklin en France. Jean Lair de la Motte, neveu de Jacques Barbeu du Bourg est secrétaire de Benjamin Franklin.
+Barbeu rédige en 1774 le Petit Code de la raison humaine, ou Exposition succincte de ce que la raison dicte à tous les hommes pour éclairer leur conduite et assurer leur bonheur In-8° Londres : Becket : et de Hondt, 1774 qui sera réédité en 1782 et 1789. Il s'agit d'un ouvrage personnel dédié et inspiré des théories de Benjamin Franklin, est d'ailleurs imprimé pour la première fois en 1774 sur les presses de Benjamin Franklin à Passy. L'édition de 1782 passa toute en Angleterre. L'édition de 1789 donnée à Paris est « la plus complète », du Petit Code de la raison humaine dans lequel son auteur fait l'éloge de la famille et du mariage, du travail, de la tolérance ; il défend en outre le droit de propriété et l'impôt foncier, et développe des idées agrariennes sur la population et l'agriculture.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jacques_Barbeu_du_Bourg</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Barbeu_du_Bourg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Les États-Unis</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ami et allié de Benjamin Franklin, Jacques Barbeu du Bourg s'enthousiasme pour la nation qui réalise ses idées : La Pensylvanie est le premier pays policé de l'univers où la tolérance réciproque de tous les cultes religieux ait été garantie par une loi authentique[46]. Admirateur de la constitution américaine, Barbeu suit attentivement toutes les phases de la rivalité entre le Nouveau-Monde et l'Angleterre.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ami et allié de Benjamin Franklin, Jacques Barbeu du Bourg s'enthousiasme pour la nation qui réalise ses idées : La Pensylvanie est le premier pays policé de l'univers où la tolérance réciproque de tous les cultes religieux ait été garantie par une loi authentique. Admirateur de la constitution américaine, Barbeu suit attentivement toutes les phases de la rivalité entre le Nouveau-Monde et l'Angleterre.
 Il correspond aussi avec Silas Deane et Arthur Lee.
-En 1769, Jacques Barbeu du Bourg est aussi le traducteur de Lettres d'un fermier de Pensylvanie aux habitans de l'Amérique septentrionale de John Dickinson. Il leur adjoint une préface de 24 pages[47]. Il anticipe à la fin de son préambule, la brouille définitive qui va éclater, l'accroissement de population et de puissance qu'en recueillera l'Amérique, et la prospérité future de l'Union.
-Barbeu est élu, en janvier 1771, membre de la Société américaine de philosophie de Philadelphie dont il est un membre actif via sa propagande et son activité[48]. Il compose des brochures de circonstance, comme sa Lettre d'un Philadelphie à un ami de Paris et vulgarise en France les protestations anglophobes des Américains.
-La guerre d’indépendance des États-Unis
-Il s’enthousiasme pour les idées politiques de la jeune Amérique et voue une admiration pour Benjamin Franklin. En 1774, il envoya du matériel de guerre[49] et décida de jeunes nobles à aider les insurgés.
+En 1769, Jacques Barbeu du Bourg est aussi le traducteur de Lettres d'un fermier de Pensylvanie aux habitans de l'Amérique septentrionale de John Dickinson. Il leur adjoint une préface de 24 pages. Il anticipe à la fin de son préambule, la brouille définitive qui va éclater, l'accroissement de population et de puissance qu'en recueillera l'Amérique, et la prospérité future de l'Union.
+Barbeu est élu, en janvier 1771, membre de la Société américaine de philosophie de Philadelphie dont il est un membre actif via sa propagande et son activité. Il compose des brochures de circonstance, comme sa Lettre d'un Philadelphie à un ami de Paris et vulgarise en France les protestations anglophobes des Américains.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jacques_Barbeu_du_Bourg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Barbeu_du_Bourg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Les États-Unis</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>La guerre d’indépendance des États-Unis</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s’enthousiasme pour les idées politiques de la jeune Amérique et voue une admiration pour Benjamin Franklin. En 1774, il envoya du matériel de guerre et décida de jeunes nobles à aider les insurgés.
 À partir du mois de mai 1776, il défend la cause des Insurgents. Il crée une société avec différents commerçants pour le commerce avec les Insurgents. Dès cette époque, il joue un rôle politique en tant qu’intermédiaire entre les Insurgents et la France. Barbeu du Bourg s'était abouché avec Silas Deane, qui lui a été adressé par Franklin. Il espérait sans doute se faire donner une subvention pour la fourniture secrète des armes et des munitions aux Américains ; peut-être même reçut-il cette subvention, puisqu'il expédia en Amérique quelques chargements et qu'il envoya quelques négociateurs au Congrès. Dans un premier temps, pour faire une offre à Benjamin Franklin, il se rapproche de J. J. Carrier de Montieu, ancien propriétaires de la Manufacture d'armes de Saint-Étienne, mais celui-ci s'alliera avec Beamarchais.
-Il se trouve en rivalité avec Pierre-Augustin Caron de Beaumarchais. Le gouvernement français donne à Beaumarchais la préférence des fournitures secrètes aux colons insurgés. Il en écrivit à M. de Vergennes en blâmant le ministre de son choix[50].
-En 1777, il fonde une autre société[51]. Il est en rapport d'affaires avec le banquier Grand pour équiper 1 300 soldats. Il a des correspondants à Rouen et à Bordeaux. Il fait affréter un navire[52] qui part de La Rochelle le 13 août 1777, et est capturé par les Anglais en avril 1778.
-Agent zélé du parti américain[53], il persuade ainsi pendant cette période:
-Philippe Charles Jean Baptiste Tronson du Coudray[54] ;
-Gilles Jean Marie Barazer de Kermorvan[55] ;
-René Etienne Henry Gayault de Boisbertrand (Avec Pierre Penet)[56] de rejoindre l'armée américaine et de transporter des cargaisons d'armes pour le Congrès américain.
-Les milices américaines manquaient d'ingénieurs. C'est encore Barbeu du Bourg qui se chargea d'en procurer[57].
+Il se trouve en rivalité avec Pierre-Augustin Caron de Beaumarchais. Le gouvernement français donne à Beaumarchais la préférence des fournitures secrètes aux colons insurgés. Il en écrivit à M. de Vergennes en blâmant le ministre de son choix.
+En 1777, il fonde une autre société. Il est en rapport d'affaires avec le banquier Grand pour équiper 1 300 soldats. Il a des correspondants à Rouen et à Bordeaux. Il fait affréter un navire qui part de La Rochelle le 13 août 1777, et est capturé par les Anglais en avril 1778.
+Agent zélé du parti américain, il persuade ainsi pendant cette période:
+Philippe Charles Jean Baptiste Tronson du Coudray ;
+Gilles Jean Marie Barazer de Kermorvan ;
+René Etienne Henry Gayault de Boisbertrand (Avec Pierre Penet) de rejoindre l'armée américaine et de transporter des cargaisons d'armes pour le Congrès américain.
+Les milices américaines manquaient d'ingénieurs. C'est encore Barbeu du Bourg qui se chargea d'en procurer.
 En septembre 1778, il fonde une nouvelle société dont le capital sera employé en une pacotille de drogues de médecine pour les États-Unis d'Amérique à frais et bénéfices communs.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Jacques_Barbeu_du_Bourg</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jacques_Barbeu_du_Bourg</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jacques_Barbeu_du_Bourg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Barbeu_du_Bourg</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Botaniste</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1769, sa compétence comme botaniste lui vaut d'être commis, avec Le Camus et Gervais, au visa d'un ouvrage de Pierre-Joseph Buc'hoz, médecin de Nancy, De herbis et arboribus Galliœ, visa nécessaire à l'Imprimatur.
 C’est surtout son Botaniste françois qui retient l’attention. Il y suit la méthode naturelle et décrit les plantes des environs de Paris. Destiné aux étudiants et surtout aux herboristes, Barbeu du Bourg y décrit l’usage médicinal des différentes espèces. Il est le premier à abandonner le latin pour nommer et à décrire les plantes en français, innovation qui sera bientôt reprise par de nombreux auteurs.
-Botaniste[58], il possède son propre jardin[59] dans les environs de Paris qu'il offre à la Faculté pour l'instruction des chirurgiens. La liste des espèces qu'il y faisait pousser fut publiée par lui sous le titre de Catalogue d'un jardin déplantes usuelles par classes et familles.
-Il étudie aussi les champignons. Avec Marie Catherine Biheron[60], Barbeu avait formé le projet de faire une collection de champignons.
+Botaniste, il possède son propre jardin dans les environs de Paris qu'il offre à la Faculté pour l'instruction des chirurgiens. La liste des espèces qu'il y faisait pousser fut publiée par lui sous le titre de Catalogue d'un jardin déplantes usuelles par classes et familles.
+Il étudie aussi les champignons. Avec Marie Catherine Biheron, Barbeu avait formé le projet de faire une collection de champignons.
 Louis Marie Aubert Du Petit-Thouars a donné le nom de Barbeuia à une plante trouvée à Madagascar et qu'il regardait comme seule de son espèce.
 </t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Jacques_Barbeu_du_Bourg</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jacques_Barbeu_du_Bourg</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jacques_Barbeu_du_Bourg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Barbeu_du_Bourg</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Mort</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Barbeu du Bourg meurt de fièvre maligne le 12 ou 13 février 1779[61]. Son neveu, Jean Lair de Lamotte, signale, le 13 décembre 1779, que son oncle vient de mourir à l'abbaye de Saint-Germain-des-Prés[62].
-Ses cendres sont déposées à la chapelle[63] de Saint-Symphorien de l’église Saint-Germain-des-Prés.
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Barbeu du Bourg meurt de fièvre maligne le 12 ou 13 février 1779. Son neveu, Jean Lair de Lamotte, signale, le 13 décembre 1779, que son oncle vient de mourir à l'abbaye de Saint-Germain-des-Prés.
+Ses cendres sont déposées à la chapelle de Saint-Symphorien de l’église Saint-Germain-des-Prés.
 Paul Delaunay nous dit qu'il fut profondément croyant et que Dom Piolin le juge mal en le disant voltairien.
 </t>
         </is>
